--- a/Képek/Viktoria/7.nap/7_nap.xlsx
+++ b/Képek/Viktoria/7.nap/7_nap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apalo\Desktop\All\aaIskolai\2.év\2felev\kutatas\Gamification\Képek\Viktoria\7.nap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CED844-CE5F-45D2-9A69-9738F0D058ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E91C62-D108-4C83-B03B-FAAEA5321383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2025" windowWidth="15375" windowHeight="7875" xr2:uid="{3069A29F-2C0E-4010-9725-F914A5D5C305}"/>
+    <workbookView xWindow="585" yWindow="2370" windowWidth="15375" windowHeight="7875" xr2:uid="{3069A29F-2C0E-4010-9725-F914A5D5C305}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -569,7 +569,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +581,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
